--- a/application/static/excel_data/data_crawling -- pembelajaran jarak jauh.xlsx
+++ b/application/static/excel_data/data_crawling -- pembelajaran jarak jauh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1181">
   <si>
     <t>id</t>
   </si>
@@ -3531,6 +3531,412 @@
   </si>
   <si>
     <t>Tue Dec 08 02:08:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pandemi Covid-19 yang melanda sejak Maret 2020 mengubah seluruh tatanan kehidupan, tak terkecuali dunia pendidikan di Indonesia. Kemendikbud merespons cepat situasi ini dgn mengeluarkan kebijakan siswa &amp;amp; mahasiswa mengikuti pembelajaran jarak jauh (PJJ). https://t.co/gHT9b7qpvA</t>
+  </si>
+  <si>
+    <t>Batman_Monyok</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 11:17:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hasil penelitian Universitas Indonesia (UI) terhadap Pembelajaran Jarak Jauh (PJJ) mengungkapkan bahwa peserta didik belum menerima sepenuhnya PJJ sebagai proses pembelajaran. @univ_indonesia 
+https://t.co/afLzbP10PU</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:45:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Lanjut ke Pembelajaran Jarak Jauh bersama Dr. Drs. Syamsurizal, https://t.co/SkN4zT5FO8. @ Jalan Pattimura, Jambi https://t.co/t8f1qwTnIu</t>
+  </si>
+  <si>
+    <t>IqbalMU27</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:28:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@zriekopatra @txtdarisiapaaja @calistauuu pjj [pembelajaran jarak jauh]</t>
+  </si>
+  <si>
+    <t>rzkyavila</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:17:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>https://t.co/6djUD6RMs8, BALIKPAPAN- Sebanyak 481 orang siswa pagi ini dipulangkan ke wilayah pengiriman masing-masing dalam rangka pengalihan metode proses belajar mengajar, dari metode tatap muka ke metode pembelajaran jarak jauh.
+#PolriPromoter #Poldakaltim #Kaltim https://t.co/hoQhsBtAZV</t>
+  </si>
+  <si>
+    <t>Poldakaltim</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:10:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh, Apakah Efektif? - https://t.co/fUysyo9ahx https://t.co/4cXs8L8CBQ</t>
+  </si>
+  <si>
+    <t>elNaan13</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 05:28:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pembelajaran Jarak Jauh, Apakah Efektif? https://t.co/7qHDD5UrWg</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 05:07:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Efek dari Pembelajaran Jarak Jauh. 😊</t>
+  </si>
+  <si>
+    <t>daniellsinaga</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:37:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess pjj - pembelajaran jarak jauh
+remote studying</t>
+  </si>
+  <si>
+    <t>galindrash</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:07:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Apa Kabar Mahasiswa? Yuk, Simak 9 Perspektif Positif Saat Pembelajaran Jarak Jauh https://t.co/zNZ8cHDq5F</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:03:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>#NusantaRunxYayasanGuruBelajar merancang Program #TerusBelajar, bertujuan membantu Guru-guru melakukan pembelajaran jarak jauh di masa pandemi ini.
+Melalui campaign ini saya akan berlari sejauh 119KM dan mengajak kalian #orangbaik berdonasi untuk mereka
+https://t.co/7O6SBW3BPM https://t.co/4opWBdsgaw</t>
+  </si>
+  <si>
+    <t>putery4myg</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 17:41:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>pwmu:  Covid Masih Mengancam, DPR Anjurkan Belajar Online Diperpanjang: https://t.co/BQikWdyYDU– Covid masih mengancam, Komisi X DPR menganjurkan kepada Mendikbud untuk memperpanjang Pembelajaran Jarak Jauh (PJJ)  atau belajar online. Guru-guru harus… https://t.co/0BjVYufWML https://t.co/QmjNGLHQwD</t>
+  </si>
+  <si>
+    <t>muh_muda</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 16:08:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Apakah maksud sebenar pembelajaran secara dalam talian? 
+#JOURNAKA #O20JRN500 #ODL #Onlinelearning #onlinestudy #episode1 @Journaka20 @mrhamz 
+https://t.co/p9gyKRp3XN</t>
+  </si>
+  <si>
+    <t>syamiralianaa</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:50:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. Bantu Donasi dengan klik https://t.co/AjF1d6B4Vs</t>
+  </si>
+  <si>
+    <t>_damarnugroho</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:44:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Asesmen Kompetensi Minimum dan Implikasinya dalam Pembelajaran Jarak Jauh
+Tanggal: 12 Desember 2020
+Pukul: 09.00 WIB
+https://t.co/LIm6oIeTMn
+#infojadwalevent #jadwalevent #seminar #webinar #seminarpendidikan #webinarpendidikan #seminarguru #webinarguru #seminargratis https://t.co/h7UIyF7RA2</t>
+  </si>
+  <si>
+    <t>InfoJadwalEvent</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:29:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Membahas Pembelajaran Jarak Jauh (PJJ) emang gak ada habisnya. Kalau kemarin kami bahas lika-liku, sekarang kami bahas sambat-sambatnya😜 https://t.co/LnMy8GHDp3</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:51:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kebijakan Pembelajaran Jarak Jauh (PJJ), dengan keterbatasan fasilitas, infrastruktur, mahalnya kuota sangat membebani mahasiswa. #CampakkanDemokrasiSongsongKhilafah #DemokrasiSistemKorup</t>
+  </si>
+  <si>
+    <t>ningsihasanudin</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:37:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Di masa pandemi, proses pembelajaran jarak jauh (PJJ) jadi solusi terbaik dalam pemenuhan hak pendidikan anak untuk menjaga keselamatan mereka. Namun dalam prosesnya, sejumlah orang tua pun mengaku stress karena harus menggantikan peran guru di sekolah. https://t.co/wWnUZAl5kN</t>
+  </si>
+  <si>
+    <t>revmen_id</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:36:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh.. Bantu Donasi dengan klik https://t.co/LkMpzm9JT3</t>
+  </si>
+  <si>
+    <t>berurinberurin</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:40:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kemahiran berkomunikasi menjadi salah satu aspek utama yang boleh mempengaruhi pencapaian pelajar dalam proses pembelajaran.
+ https://t.co/Rqc9xLZap2
+#KitaJagaKita</t>
+  </si>
+  <si>
+    <t>MOHEOfficial</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:03:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Layanan apa yang sangat teman-teman butuhkan selama masa Pembelajaran Jarak Jauh dan harus diakses secara fisik?</t>
+  </si>
+  <si>
+    <t>UI_library</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:03:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>NusantaRun Chapter 8 bekerja sama dengan Yayasan Guru Belajar merancang Program #TerusBelajar, yang bertujuan membantu guru melakukan pembelajaran jarak jauh. 
+.
+silahkan donasikan untuk membantu para siswa yang tidak bisa belajar jarak jauh.  https://t.co/9ykJFDjwUy</t>
+  </si>
+  <si>
+    <t>histi_hz</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:02:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pritahw</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:57:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>karindakaka</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:56:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>HelmiHidayati1</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:44:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pendapat siswa  tentang pembelajaran jarak jauh
+https://t.co/QVNkAgC9W8</t>
+  </si>
+  <si>
+    <t>siardizal</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:36:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>YantiAisyah5</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:10:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ifafafafaaa</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:00:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebab, guru harus dihadapkan pada teknologi sebagai media pembelajaran jarak jauh. Imbas lain yang dirasakan guru ialah masalah ekonomi, terutama pada guru swasta dan honorer yang terancam keberlangsungan pemenuhan kebutuhan hidupnya.</t>
+  </si>
+  <si>
+    <t>lazismuuh</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:45:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>RumaishaShajar</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:41:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mitsubishi CSR Children Program Mudahkan Pembelajaran Jarak Jauh Anak https://t.co/SElVWxLwMe https://t.co/yh3DDtoD6M</t>
+  </si>
+  <si>
+    <t>jurnascom</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:39:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>LilyWhi31422475</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:18:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>ZiziZiah2</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:15:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seberapa efektifkah pembelajaran jarak jauh (PJJ) untuk PAUD? 
+Apa dampaknya jika anak tidak mengikuti PAUD? Ikuti diskusi dalam #KompasTalks bersama @tanotoeducation. 
+https://t.co/v3hRfa31Tf</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:14:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Enungnu46709474</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:12:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Unie_reborn20</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:57:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>peraameera</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:53:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>RARisa77556244</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:34:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>umi4affan</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:33:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>ummu_fatimah182</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:31:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>zhafizalf</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:18:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>MRhieeya</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:14:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut catatan saya mengenai pembelajaran jarak jauh. Sila disimak bagi yang berkenan 🙏 https://t.co/kpZzrTE9Oa</t>
+  </si>
+  <si>
+    <t>FikriFaqih</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:42:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>RofiqoFiqo1</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:07:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>DaffaFatih6</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:09:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Delapan labtop telah diberikan masing-masing kepada Desshafa, Ariel, Rayya, Muamar zihad, Neneng melati, Novianti Nur, Kayra Octaviani dan Silviana. Rata-rata mereka masih dibangku SD dan SMP yg membutuhkan labtop tersebut untuk penerapan pembelajaran jarak jauh.
+#JumatBerkah https://t.co/Ej4DImJFow</t>
+  </si>
+  <si>
+    <t>PrasetyoEdi_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:03:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alhamdulillah di hari jumat yang berkah ini, rekan-rekan Sohib Prass kembali memberikan bantuan labtop kepada anak-anak yang membutuhkan sebagai alat dukung penerapan pembelajaran Jarak Jauh dengan Belajar di Rumah.
+#JumatBerkah #BelajardiRumah https://t.co/MdORkYpLLh</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:03:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Siswa-siswi warga Pulau Sabira, menggunakan fasilitas JakWIFI utk pembelajaran jarak jauh alias belajar online, dengan tetap menerapkan protokol kesehatan.
+Yuk, cari tahu akses poin #JakWIFI terdekatmu melalui aplikasi JAKI!
+#InternetUntukSemua #jagajakarta #JakartaSmartCity https://t.co/JHZWAwFVAm</t>
+  </si>
+  <si>
+    <t>DKIJakarta</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:06:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Riset UNJ: Pembelajaran Jarak Jauh Tak Boleh Permanen https://t.co/zZTCcf0Sie</t>
+  </si>
+  <si>
+    <t>Bisniscom</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:14:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sch! Halo selamat malam, apa disini ada yang pakai aplikasi zenius? kebetulan aku ada penelitian mengenai aplikasi tsb utk pembelajaran jarak jauh. Jika berkenan, ada yang mau ga jadi narasumber aku dgn mengisi angket?🥺</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 15:11:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>@bukandewiii jodoh aq? Tp aq ga suka psj sukanya pjj pembelajaran jarak jauh</t>
+  </si>
+  <si>
+    <t>hhaayyoo</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:24:41 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -3893,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I459" sqref="I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9515,6 +9921,860 @@
         <v>775</v>
       </c>
     </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1.337718191779287E+18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1.3376951275951759E+18</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C403" t="s">
+        <v>995</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1.337690720531063E+18</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1.3376880480672189E+18</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1.3376712529960671E+18</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1.33763036195038E+18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1.337624988300374E+18</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C408" t="s">
+        <v>680</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1.3376175127714611E+18</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1.3376099973168461E+18</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1.337593777263788E+18</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C411" t="s">
+        <v>680</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1.337452391461921E+18</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1.3374289446188439E+18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1.3373943578805701E+18</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1.3373927637304241E+18</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1.3373890828386711E+18</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1.337379483427328E+18</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C417" t="s">
+        <v>686</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1.337360869508801E+18</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1.33736059469389E+18</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1.337331381727158E+18</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1.3373221296042391E+18</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1.3373220916123069E+18</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1.3373218727493299E+18</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1.337320622305673E+18</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1.33732031217041E+18</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1.3373173005929879E+18</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1.3373153513741519E+18</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1.33730873488051E+18</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1.3373063084085581E+18</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1.3373025485631199E+18</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1.337301525941506E+18</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1.337300850830582E+18</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1.3372957342032489E+18</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1.3372950474153249E+18</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1.3372947162289679E+18</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C435" t="s">
+        <v>405</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1.337294214573408E+18</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1.3372902774389309E+18</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1.337289505468895E+18</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1.3372845675107571E+18</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1.337284456927785E+18</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1.3372839408606131E+18</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1.3372806559782341E+18</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1.337279649609515E+18</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1.337271600312246E+18</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1.3372627267001431E+18</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1.3372480969762161E+18</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1.3372466584976709E+18</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1.3372466477518269E+18</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1.3372172481303429E+18</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1.3372039577357189E+18</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1.3370523783281421E+18</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C451" t="s">
+        <v>78</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1.337040545861014E+18</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1.3369974234161521E+18</v>
+      </c>
+      <c r="B453" t="s">
+        <v>976</v>
+      </c>
+      <c r="C453" t="s">
+        <v>977</v>
+      </c>
+      <c r="D453" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1.3369830204530319E+18</v>
+      </c>
+      <c r="B454" t="s">
+        <v>979</v>
+      </c>
+      <c r="C454" t="s">
+        <v>980</v>
+      </c>
+      <c r="D454" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1.3369038628048571E+18</v>
+      </c>
+      <c r="B455" t="s">
+        <v>982</v>
+      </c>
+      <c r="C455" t="s">
+        <v>983</v>
+      </c>
+      <c r="D455" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1.3368984752004549E+18</v>
+      </c>
+      <c r="B456" t="s">
+        <v>985</v>
+      </c>
+      <c r="C456" t="s">
+        <v>986</v>
+      </c>
+      <c r="D456" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1.336896765585342E+18</v>
+      </c>
+      <c r="B457" t="s">
+        <v>988</v>
+      </c>
+      <c r="C457" t="s">
+        <v>989</v>
+      </c>
+      <c r="D457" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1.336882613127062E+18</v>
+      </c>
+      <c r="B458" t="s">
+        <v>991</v>
+      </c>
+      <c r="C458" t="s">
+        <v>992</v>
+      </c>
+      <c r="D458" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1.3368727648844549E+18</v>
+      </c>
+      <c r="B459" t="s">
+        <v>994</v>
+      </c>
+      <c r="C459" t="s">
+        <v>995</v>
+      </c>
+      <c r="D459" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1.3368626821929119E+18</v>
+      </c>
+      <c r="B460" t="s">
+        <v>997</v>
+      </c>
+      <c r="C460" t="s">
+        <v>998</v>
+      </c>
+      <c r="D460" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1.3368582267766249E+18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1.3368531433642481E+18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
